--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2548.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2548.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281664375389361</v>
+        <v>2.024603843688965</v>
       </c>
       <c r="B1">
-        <v>2.181267038976257</v>
+        <v>2.216437101364136</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.005729675292969</v>
       </c>
       <c r="D1">
-        <v>1.305977666155266</v>
+        <v>0.9627824425697327</v>
       </c>
       <c r="E1">
-        <v>0.9450649623120672</v>
+        <v>0.5426732897758484</v>
       </c>
     </row>
   </sheetData>
